--- a/data/trans_orig/P36B11-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>5621</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1828</v>
+        <v>1928</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12582</v>
+        <v>13901</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01186495601704741</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003859174089824695</v>
+        <v>0.004070302242381835</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02655674977831621</v>
+        <v>0.02934118812098503</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -764,19 +764,19 @@
         <v>5119</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1930</v>
+        <v>1955</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11311</v>
+        <v>11402</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01669271221102488</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006293312542006871</v>
+        <v>0.006373912443137025</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03688221854549349</v>
+        <v>0.03718032180285552</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -785,19 +785,19 @@
         <v>10741</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5581</v>
+        <v>5087</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19501</v>
+        <v>18654</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01376202204739652</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007150358436688465</v>
+        <v>0.006517856443737534</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0249861323829076</v>
+        <v>0.02390182873632294</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>38790</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27522</v>
+        <v>27906</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51989</v>
+        <v>51772</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08187334909218498</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05809066226540816</v>
+        <v>0.05890123443692776</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1097339329379867</v>
+        <v>0.1092751296530986</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -835,19 +835,19 @@
         <v>19965</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12328</v>
+        <v>12560</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30055</v>
+        <v>30229</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06510065085216145</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04019977586204578</v>
+        <v>0.0409546393841362</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09799963471250479</v>
+        <v>0.09856901560218523</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>56</v>
@@ -856,19 +856,19 @@
         <v>58755</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>44375</v>
+        <v>45029</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>74471</v>
+        <v>75350</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07528251998028027</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05685760139563761</v>
+        <v>0.05769604018853262</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09541954374656264</v>
+        <v>0.09654619196752032</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>219887</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>197889</v>
+        <v>196540</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>242830</v>
+        <v>241734</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4641150980892032</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4176841481677838</v>
+        <v>0.4148381033178984</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5125411255852754</v>
+        <v>0.5102289206861752</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>165</v>
@@ -906,19 +906,19 @@
         <v>167998</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>151482</v>
+        <v>151067</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>184329</v>
+        <v>184425</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5477953386587495</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4939417250932289</v>
+        <v>0.4925888523746317</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6010472961225765</v>
+        <v>0.6013611279791879</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>377</v>
@@ -927,19 +927,19 @@
         <v>387885</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>359099</v>
+        <v>360918</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>416292</v>
+        <v>415329</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4969972353425222</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4601138723378977</v>
+        <v>0.4624440519280835</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5333952956761682</v>
+        <v>0.5321606465229786</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>193911</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>172132</v>
+        <v>173205</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>213607</v>
+        <v>219126</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4092874620220436</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3633185591176511</v>
+        <v>0.3655835097419499</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4508617016227336</v>
+        <v>0.4625104919543689</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>101</v>
@@ -977,19 +977,19 @@
         <v>105391</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91139</v>
+        <v>88099</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>121449</v>
+        <v>122445</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3436517032004239</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2971793349039296</v>
+        <v>0.287266639588565</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3960117284837563</v>
+        <v>0.3992592274585263</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>287</v>
@@ -998,19 +998,19 @@
         <v>299302</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>275408</v>
+        <v>271568</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>329292</v>
+        <v>325796</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3834959010082516</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3528808812213741</v>
+        <v>0.3479604403015111</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4219221991661066</v>
+        <v>0.4174420603809388</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>15568</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8818</v>
+        <v>9019</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24914</v>
+        <v>25347</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03285913477952079</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01861311109739861</v>
+        <v>0.01903688473771103</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05258556254940721</v>
+        <v>0.05350092333987379</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1048,19 +1048,19 @@
         <v>8207</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4051</v>
+        <v>3433</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16669</v>
+        <v>15088</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02675959507764026</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01321005719352611</v>
+        <v>0.01119312639618364</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05435401787381967</v>
+        <v>0.04919810763522657</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>23</v>
@@ -1069,19 +1069,19 @@
         <v>23775</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15592</v>
+        <v>14466</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>35047</v>
+        <v>34433</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03046232162154935</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01997863248948374</v>
+        <v>0.01853542843444871</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04490516856656935</v>
+        <v>0.04411844198787509</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>5555</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1988</v>
+        <v>1999</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10906</v>
+        <v>11257</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01513902602764526</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005418293818968806</v>
+        <v>0.005447507088074313</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02972182400910284</v>
+        <v>0.03067951060971626</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1194,19 +1194,19 @@
         <v>7872</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3741</v>
+        <v>3747</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15245</v>
+        <v>14905</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02117007095105911</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01006045471174851</v>
+        <v>0.01007631850208806</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04099504692332016</v>
+        <v>0.04008137532308531</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1215,19 +1215,19 @@
         <v>13427</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7555</v>
+        <v>7593</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21620</v>
+        <v>21512</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01817467400913063</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01022624612683372</v>
+        <v>0.01027774890331136</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02926325208535188</v>
+        <v>0.02911742152989956</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>27410</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19255</v>
+        <v>18208</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38201</v>
+        <v>37731</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07470137597603553</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05247521747673822</v>
+        <v>0.04962168288737705</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1041081205069837</v>
+        <v>0.1028284273399909</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -1265,19 +1265,19 @@
         <v>29403</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20729</v>
+        <v>20121</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41027</v>
+        <v>41339</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07906946642204048</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05574388891963303</v>
+        <v>0.05410940728816821</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.110328944954359</v>
+        <v>0.1111654926828576</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>57</v>
@@ -1286,19 +1286,19 @@
         <v>56814</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>43451</v>
+        <v>43751</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>71344</v>
+        <v>73185</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07689999746099284</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0588124659588551</v>
+        <v>0.05921893214092708</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09656696395703561</v>
+        <v>0.09905995582856468</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>211113</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>190062</v>
+        <v>190360</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>228894</v>
+        <v>229987</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5753419694071447</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.517974346301656</v>
+        <v>0.5187849550179489</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6238024567931455</v>
+        <v>0.6267792433536172</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>215</v>
@@ -1336,19 +1336,19 @@
         <v>220977</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>201945</v>
+        <v>201324</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>240760</v>
+        <v>238792</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.594238766448424</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5430599334971888</v>
+        <v>0.5413903822484954</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6474380463455023</v>
+        <v>0.6421469870522377</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>417</v>
@@ -1357,19 +1357,19 @@
         <v>432089</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>403369</v>
+        <v>407677</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>457606</v>
+        <v>460465</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5848534262978401</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5459794219860622</v>
+        <v>0.5518100536096706</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6193919225148179</v>
+        <v>0.6232613784250726</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>112994</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95478</v>
+        <v>95269</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>131802</v>
+        <v>131927</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3079397429193662</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2602047168442127</v>
+        <v>0.2596350449339531</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.359199093304866</v>
+        <v>0.3595382853750703</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>100</v>
@@ -1407,19 +1407,19 @@
         <v>102728</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83473</v>
+        <v>85165</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>119271</v>
+        <v>120684</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2762515853038155</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2244724414170556</v>
+        <v>0.2290205942839156</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3207386757845612</v>
+        <v>0.3245369002302936</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -1428,19 +1428,19 @@
         <v>215722</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>191654</v>
+        <v>188332</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>242915</v>
+        <v>238612</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2919899211348874</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2594127008167235</v>
+        <v>0.2549165404962984</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3287972015558723</v>
+        <v>0.3229724833270039</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>9862</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4753</v>
+        <v>4464</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19349</v>
+        <v>18406</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02687788566980839</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01295437888068213</v>
+        <v>0.01216666955244881</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05273279024429638</v>
+        <v>0.05016235401803375</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -1478,19 +1478,19 @@
         <v>10885</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4968</v>
+        <v>5902</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18542</v>
+        <v>18955</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02927011087466092</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01335892130319391</v>
+        <v>0.01587219644004709</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04986224294846214</v>
+        <v>0.05097186656769073</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -1499,19 +1499,19 @@
         <v>20747</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13188</v>
+        <v>12440</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32814</v>
+        <v>31098</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02808198109714909</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01784991894296802</v>
+        <v>0.01683795047178605</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04441571237864052</v>
+        <v>0.04209237354081036</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>13172</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6817</v>
+        <v>6753</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21678</v>
+        <v>22297</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02432346451560294</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01258777516700413</v>
+        <v>0.01247134075832933</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0400321915423353</v>
+        <v>0.04117438016904024</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1624,19 +1624,19 @@
         <v>4086</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1148</v>
+        <v>1022</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9274</v>
+        <v>9223</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02435404742363906</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006842724420531195</v>
+        <v>0.00609333553293915</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05527577811999761</v>
+        <v>0.05497070867436359</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1645,19 +1645,19 @@
         <v>17258</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9613</v>
+        <v>10818</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27049</v>
+        <v>27734</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0243306987428659</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01355273146599364</v>
+        <v>0.01525192039781761</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03813490231304593</v>
+        <v>0.03909975402911934</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>55491</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42528</v>
+        <v>41594</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>71313</v>
+        <v>71060</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1024720562078477</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0785334998114374</v>
+        <v>0.07680878161622967</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1316906280034718</v>
+        <v>0.1312230090328138</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1695,19 +1695,19 @@
         <v>9731</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4694</v>
+        <v>4807</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17620</v>
+        <v>17705</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05799890522677261</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02797674499022507</v>
+        <v>0.02865064310011354</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1050180325460729</v>
+        <v>0.1055222121941769</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>63</v>
@@ -1716,19 +1716,19 @@
         <v>65222</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>50400</v>
+        <v>49989</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>80974</v>
+        <v>81239</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09195216447888178</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0710557478521411</v>
+        <v>0.07047637655498468</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1141592804346982</v>
+        <v>0.1145338669928938</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>264784</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>241946</v>
+        <v>241698</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>288764</v>
+        <v>287688</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4889626254825757</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4467905045168056</v>
+        <v>0.4463319785517864</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5332467212196021</v>
+        <v>0.531259324631035</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>90</v>
@@ -1766,19 +1766,19 @@
         <v>90556</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>77654</v>
+        <v>77283</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>103492</v>
+        <v>102756</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.539722913719956</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.462825336597823</v>
+        <v>0.4606173391951933</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6168251440308375</v>
+        <v>0.6124355294653784</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>351</v>
@@ -1787,19 +1787,19 @@
         <v>355339</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>327394</v>
+        <v>330816</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>382580</v>
+        <v>384481</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5009697067126774</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4615711131838102</v>
+        <v>0.4663954927444904</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5393741091650223</v>
+        <v>0.5420541247265998</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>198857</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>179076</v>
+        <v>178655</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>223121</v>
+        <v>223084</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3672196864467808</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3306907957329964</v>
+        <v>0.3299142483937668</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4120265522924244</v>
+        <v>0.4119588413038225</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -1837,19 +1837,19 @@
         <v>60588</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48547</v>
+        <v>48649</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72553</v>
+        <v>73984</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3611099078897819</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2893436598291041</v>
+        <v>0.2899541048563127</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4324239449703201</v>
+        <v>0.4409526451916141</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>253</v>
@@ -1858,19 +1858,19 @@
         <v>259445</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>233751</v>
+        <v>234548</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>284547</v>
+        <v>284273</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3657744502202104</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3295498656636562</v>
+        <v>0.3306741736394841</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.401164757941571</v>
+        <v>0.400778049556192</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>9218</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4098</v>
+        <v>4056</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17558</v>
+        <v>17258</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01702216734719284</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007567008758413212</v>
+        <v>0.007490565352206659</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03242402194993305</v>
+        <v>0.03186879077132935</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1908,19 +1908,19 @@
         <v>2821</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8145</v>
+        <v>7753</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0168142257398505</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004781620661876439</v>
+        <v>0.004693667458210302</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04854788554512476</v>
+        <v>0.04620628305409448</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -1929,19 +1929,19 @@
         <v>12039</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6174</v>
+        <v>6107</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21230</v>
+        <v>20112</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01697297984536461</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008704121592376133</v>
+        <v>0.008609669080437969</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02993125254656657</v>
+        <v>0.02835408652705757</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>17790</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10663</v>
+        <v>10856</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27275</v>
+        <v>27602</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01436641873807613</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00861079859595733</v>
+        <v>0.008766234042657913</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02202574939419898</v>
+        <v>0.02228937333822342</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2054,19 +2054,19 @@
         <v>13155</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7627</v>
+        <v>6873</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23388</v>
+        <v>21970</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01844224673859749</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01069202733073554</v>
+        <v>0.009634958924688736</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03278953270905229</v>
+        <v>0.03080061853263103</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>31</v>
@@ -2075,19 +2075,19 @@
         <v>30945</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20557</v>
+        <v>21095</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42440</v>
+        <v>42494</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01585607573301034</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01053302771929395</v>
+        <v>0.01080901016595118</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02174579724948265</v>
+        <v>0.02177338360322264</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>85709</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>68825</v>
+        <v>69072</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>105243</v>
+        <v>103076</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06921286040383647</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05557866018144428</v>
+        <v>0.05577831913561591</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08498782562813184</v>
+        <v>0.08323802527720704</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>60</v>
@@ -2125,19 +2125,19 @@
         <v>63134</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>49087</v>
+        <v>48843</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>80133</v>
+        <v>80528</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08851065946673413</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06881710318199334</v>
+        <v>0.06847610098369324</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1123432366863909</v>
+        <v>0.1128957280755214</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>147</v>
@@ -2146,19 +2146,19 @@
         <v>148843</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>129570</v>
+        <v>125817</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>176680</v>
+        <v>173020</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07626593068972763</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0663907569184374</v>
+        <v>0.06446774283427793</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09052978476603495</v>
+        <v>0.08865409352468295</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>630823</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>592353</v>
+        <v>594440</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>666221</v>
+        <v>662874</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5094126477779461</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4783468738875046</v>
+        <v>0.4800317390392749</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5379980384526065</v>
+        <v>0.5352949405743657</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>366</v>
@@ -2196,19 +2196,19 @@
         <v>375229</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>347399</v>
+        <v>349312</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>402802</v>
+        <v>401939</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5260532513766276</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4870370082049833</v>
+        <v>0.4897191994023827</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5647095902933997</v>
+        <v>0.5634991171592468</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>983</v>
@@ -2217,19 +2217,19 @@
         <v>1006053</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>964675</v>
+        <v>958753</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1051549</v>
+        <v>1048344</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5154945510249753</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4942930844751136</v>
+        <v>0.4912585851253811</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.538806494152419</v>
+        <v>0.5371645657365679</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>475795</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>440916</v>
+        <v>446303</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>509720</v>
+        <v>509343</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3842214816554133</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3560559317614455</v>
+        <v>0.3604057430010036</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4116173345752092</v>
+        <v>0.411313435564586</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>240</v>
@@ -2267,19 +2267,19 @@
         <v>247155</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>220755</v>
+        <v>222944</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>275764</v>
+        <v>273903</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3464993970392503</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3094880988685615</v>
+        <v>0.3125569252948413</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3866081366073076</v>
+        <v>0.3839987332505219</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>714</v>
@@ -2288,19 +2288,19 @@
         <v>722950</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>680932</v>
+        <v>683638</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>764872</v>
+        <v>765394</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3704345978112522</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3489048176918352</v>
+        <v>0.350291497771887</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3919152289307888</v>
+        <v>0.392182962220837</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>28217</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>19464</v>
+        <v>19483</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>41921</v>
+        <v>41855</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02278659142472801</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01571772284691142</v>
+        <v>0.01573361920089748</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03385304167843492</v>
+        <v>0.03379904595584997</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -2338,19 +2338,19 @@
         <v>14619</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8718</v>
+        <v>8453</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24314</v>
+        <v>23374</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02049444537879039</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01222199136892824</v>
+        <v>0.01185089717000029</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03408762189842068</v>
+        <v>0.03276913838532443</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>42</v>
@@ -2359,19 +2359,19 @@
         <v>42836</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>31762</v>
+        <v>31825</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>57216</v>
+        <v>57522</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02194884474103453</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01627443655909946</v>
+        <v>0.0163069784345126</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02931707044071999</v>
+        <v>0.02947392712426534</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>7189</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2923</v>
+        <v>2971</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15539</v>
+        <v>16292</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02050699617906734</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008337783268112535</v>
+        <v>0.00847496685869915</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04432615967068941</v>
+        <v>0.04647526614690585</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -2484,19 +2484,19 @@
         <v>16471</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9402</v>
+        <v>9478</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25501</v>
+        <v>26582</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02901361601114974</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01656092049933981</v>
+        <v>0.0166949769640964</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04491994959040848</v>
+        <v>0.04682485637683679</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>21</v>
@@ -2505,19 +2505,19 @@
         <v>23660</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>14884</v>
+        <v>15174</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>35903</v>
+        <v>35392</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02576608040372623</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01620959008752062</v>
+        <v>0.01652494500873309</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03909977950482022</v>
+        <v>0.03854246457205698</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>34943</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24045</v>
+        <v>24284</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>48179</v>
+        <v>47647</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09967966183303444</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0685899618641678</v>
+        <v>0.06927300347674717</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1374361761862362</v>
+        <v>0.135920160059566</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>33</v>
@@ -2555,19 +2555,19 @@
         <v>37037</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>25194</v>
+        <v>24719</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>49571</v>
+        <v>49210</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06524191387827501</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04437934079912542</v>
+        <v>0.04354240114681994</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08732062591113536</v>
+        <v>0.08668490182888196</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>67</v>
@@ -2576,19 +2576,19 @@
         <v>71981</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>55910</v>
+        <v>56050</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>91254</v>
+        <v>91858</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07838906455976724</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06088750624079779</v>
+        <v>0.06103990701909395</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09937832700840206</v>
+        <v>0.1000362298049129</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>154135</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>137964</v>
+        <v>134484</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>174236</v>
+        <v>172948</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4396887199779285</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3935589113238686</v>
+        <v>0.3836311022434332</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4970290235180296</v>
+        <v>0.4933546303793525</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>276</v>
@@ -2626,19 +2626,19 @@
         <v>290214</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>265693</v>
+        <v>266970</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>315910</v>
+        <v>314763</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5112179649886188</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4680232317582348</v>
+        <v>0.4702721631780578</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5564821488981737</v>
+        <v>0.5544609722107101</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>423</v>
@@ -2647,19 +2647,19 @@
         <v>444349</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>416271</v>
+        <v>414779</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>479979</v>
+        <v>474053</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4839105532634292</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4533322603219042</v>
+        <v>0.4517069378304123</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5227119487553294</v>
+        <v>0.5162591601234504</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>143997</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>125612</v>
+        <v>125493</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>160871</v>
+        <v>162904</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4107686726357345</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3583227431194035</v>
+        <v>0.3579830639328154</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4589024020006973</v>
+        <v>0.464702413555568</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>196</v>
@@ -2697,19 +2697,19 @@
         <v>205381</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>181780</v>
+        <v>182078</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>230998</v>
+        <v>229226</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3617820101143272</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3202086235726098</v>
+        <v>0.3207329548458653</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4069067108095238</v>
+        <v>0.4037849953678829</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>337</v>
@@ -2718,19 +2718,19 @@
         <v>349378</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>319208</v>
+        <v>320686</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>380106</v>
+        <v>378857</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3804834372343123</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3476276450265607</v>
+        <v>0.3492367461754349</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.413947696051186</v>
+        <v>0.412587449922439</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>10291</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5477</v>
+        <v>5587</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>17468</v>
+        <v>17990</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02935594937423531</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01562409550583107</v>
+        <v>0.01593743359125242</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.049828488991652</v>
+        <v>0.05131783757480156</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -2768,19 +2768,19 @@
         <v>18589</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11594</v>
+        <v>11211</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>28332</v>
+        <v>28346</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03274449500762919</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02042308927422731</v>
+        <v>0.01974795546632082</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04990768426523055</v>
+        <v>0.04993141454882871</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>30</v>
@@ -2789,19 +2789,19 @@
         <v>28880</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>19653</v>
+        <v>19486</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>41034</v>
+        <v>39473</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03145086453876501</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02140229066288364</v>
+        <v>0.02122109404575788</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04468783430410267</v>
+        <v>0.04298726980487336</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>2583</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7381</v>
+        <v>6859</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.008663490305772696</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.002791702945687061</v>
+        <v>0.002804506863084294</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02475253279502839</v>
+        <v>0.02300181706382125</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>13</v>
@@ -2914,19 +2914,19 @@
         <v>13615</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>7754</v>
+        <v>7008</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>23603</v>
+        <v>22452</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01090255320296514</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.006209562256559513</v>
+        <v>0.005612171884440752</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01890129608808292</v>
+        <v>0.01797965692060979</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>16</v>
@@ -2935,19 +2935,19 @@
         <v>16198</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>9717</v>
+        <v>10009</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>25466</v>
+        <v>26131</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01047093918436521</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.006281065651877012</v>
+        <v>0.006470324501571773</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01646199917253446</v>
+        <v>0.01689170297839868</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>43835</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>31748</v>
+        <v>32131</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>57424</v>
+        <v>55488</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1469979972080696</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1064654788375064</v>
+        <v>0.107747796163434</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1925680525356297</v>
+        <v>0.1860771891709837</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>89</v>
@@ -2985,19 +2985,19 @@
         <v>86349</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>69699</v>
+        <v>71463</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>104486</v>
+        <v>104814</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06914818285524507</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05581488814911607</v>
+        <v>0.05722729032179113</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08367151813651268</v>
+        <v>0.08393483290902161</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>134</v>
@@ -3006,19 +3006,19 @@
         <v>130184</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>108484</v>
+        <v>110189</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>150871</v>
+        <v>154012</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08415493914700137</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07012741193430812</v>
+        <v>0.07122941249442226</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09752729609406191</v>
+        <v>0.0995578487233168</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>142717</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>125234</v>
+        <v>126777</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>160250</v>
+        <v>159177</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4785919158143879</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4199650298713953</v>
+        <v>0.4251410776388129</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5373891790507812</v>
+        <v>0.5337897560176263</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>677</v>
@@ -3056,19 +3056,19 @@
         <v>686611</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>650860</v>
+        <v>652634</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>719797</v>
+        <v>722810</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5498340099285816</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5212048669600639</v>
+        <v>0.5226252953708395</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5764090271270155</v>
+        <v>0.5788221887098784</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>824</v>
@@ -3077,19 +3077,19 @@
         <v>829327</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>790236</v>
+        <v>788956</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>869310</v>
+        <v>870169</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5361009939545072</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5108317657589401</v>
+        <v>0.5100041372995153</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5619473018040968</v>
+        <v>0.5625026525971634</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>106453</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>90739</v>
+        <v>90587</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>125414</v>
+        <v>122647</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3569844745929803</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3042885104835998</v>
+        <v>0.3037776295126748</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4205691183439694</v>
+        <v>0.4112913592181878</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>432</v>
@@ -3127,19 +3127,19 @@
         <v>434705</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>402942</v>
+        <v>398708</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>469288</v>
+        <v>466165</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3481095287869464</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.322673343979921</v>
+        <v>0.3192829841739065</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3758031720436426</v>
+        <v>0.3733020343958444</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>540</v>
@@ -3148,19 +3148,19 @@
         <v>541158</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>503912</v>
+        <v>502510</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>578600</v>
+        <v>577763</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3498203119136741</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3257432678785855</v>
+        <v>0.3248373331816909</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3740240311981988</v>
+        <v>0.3734825989646026</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>2613</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>6965</v>
+        <v>6930</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.008762122078789576</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.002840372663665825</v>
+        <v>0.002823219143043774</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02335682297347268</v>
+        <v>0.02324071337724284</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>27</v>
@@ -3198,19 +3198,19 @@
         <v>27480</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>18539</v>
+        <v>18690</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>38931</v>
+        <v>40213</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02200572522626177</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01484598342860156</v>
+        <v>0.01496672654677313</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.03117612434678071</v>
+        <v>0.0322026060119366</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>30</v>
@@ -3219,19 +3219,19 @@
         <v>30093</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>20695</v>
+        <v>20140</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>43418</v>
+        <v>43358</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01945281580045219</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01337785637137509</v>
+        <v>0.01301915705491028</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02806679985073341</v>
+        <v>0.02802786869750113</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>51911</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>37652</v>
+        <v>38363</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>69031</v>
+        <v>69192</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01587814172793951</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0115168707693029</v>
+        <v>0.01173417770815663</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02111477106454481</v>
+        <v>0.02116404886958055</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>58</v>
@@ -3344,19 +3344,19 @@
         <v>60318</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>46071</v>
+        <v>46598</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>79136</v>
+        <v>78105</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01786635270215394</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01364623915123746</v>
+        <v>0.01380252733105598</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02344030963200274</v>
+        <v>0.02313495587869073</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>109</v>
@@ -3365,19 +3365,19 @@
         <v>112229</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>90897</v>
+        <v>92953</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>134472</v>
+        <v>134602</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01688821602182848</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01367818541442858</v>
+        <v>0.01398753371189726</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02023540063803694</v>
+        <v>0.02025497732686874</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>286178</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>258861</v>
+        <v>253466</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>317846</v>
+        <v>319464</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.08753427150385938</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07917871634513889</v>
+        <v>0.07752856240666424</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.09722090032075738</v>
+        <v>0.09771569673991995</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>239</v>
@@ -3415,19 +3415,19 @@
         <v>245620</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>217013</v>
+        <v>213138</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>277510</v>
+        <v>277181</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0727532505479957</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06427989137617297</v>
+        <v>0.06313200131628588</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.08219916921766275</v>
+        <v>0.08210154381587102</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>524</v>
@@ -3436,19 +3436,19 @@
         <v>531798</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>486573</v>
+        <v>488835</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>579977</v>
+        <v>580786</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.08002504361075259</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07321954113488575</v>
+        <v>0.07355999248587593</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.08727510050982906</v>
+        <v>0.08739684595440705</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>1623458</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1569413</v>
+        <v>1565422</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1684841</v>
+        <v>1681763</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4965732402226204</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.480042327236134</v>
+        <v>0.4788215036652141</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5153487355510553</v>
+        <v>0.5144072044170749</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1789</v>
@@ -3486,19 +3486,19 @@
         <v>1831584</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1772631</v>
+        <v>1776330</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1888363</v>
+        <v>1891031</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5425196673092415</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5250574977310289</v>
+        <v>0.5261532559463207</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.559337648832109</v>
+        <v>0.5601280109844807</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3375</v>
@@ -3507,19 +3507,19 @@
         <v>3455042</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3377059</v>
+        <v>3373466</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>3542091</v>
+        <v>3534626</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5199154838266105</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5081805504324421</v>
+        <v>0.5076398073644379</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5330146548563082</v>
+        <v>0.5318913321077171</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>1232006</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1175343</v>
+        <v>1176464</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1282735</v>
+        <v>1283698</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3768384913049531</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3595066704266887</v>
+        <v>0.3598495525364291</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3923550004140222</v>
+        <v>0.3926494673106766</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1127</v>
@@ -3557,19 +3557,19 @@
         <v>1155948</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1100630</v>
+        <v>1098772</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1208135</v>
+        <v>1208482</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3423945764624668</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.3260090897952847</v>
+        <v>0.3254588733453649</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.357852467858933</v>
+        <v>0.357955231478487</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2336</v>
@@ -3578,19 +3578,19 @@
         <v>2387954</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>2308004</v>
+        <v>2311101</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>2465147</v>
+        <v>2466635</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3593398890869253</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3473090054208945</v>
+        <v>0.3477749755033172</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3709558419473369</v>
+        <v>0.3711798111381078</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>75769</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>59064</v>
+        <v>58332</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>96710</v>
+        <v>94697</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02317585524062754</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01806609174537105</v>
+        <v>0.01784234532684332</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02958092830310465</v>
+        <v>0.02896531420025742</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>81</v>
@@ -3628,19 +3628,19 @@
         <v>82599</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>66727</v>
+        <v>66599</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>100368</v>
+        <v>102725</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.02446615297814202</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0197647643316151</v>
+        <v>0.01972684832247062</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02972927235775476</v>
+        <v>0.03042753799275681</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>156</v>
@@ -3649,19 +3649,19 @@
         <v>158369</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>134364</v>
+        <v>133933</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>183352</v>
+        <v>183058</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02383136745388319</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02021918478045671</v>
+        <v>0.02015421423039682</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02759085687586614</v>
+        <v>0.02754661772087475</v>
       </c>
     </row>
     <row r="45">
@@ -3995,19 +3995,19 @@
         <v>3883</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12804</v>
+        <v>12170</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008902370889262719</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002140154194438631</v>
+        <v>0.002158444658280404</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02935605679024094</v>
+        <v>0.02790344110580512</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7087</v>
+        <v>6713</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006257803112530429</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02268067265075552</v>
+        <v>0.0214851603531569</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4037,19 +4037,19 @@
         <v>5838</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1932</v>
+        <v>1906</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13920</v>
+        <v>14701</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007798589571632247</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002580688881475173</v>
+        <v>0.002546648769640267</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0185948317605323</v>
+        <v>0.01963707055911259</v>
       </c>
     </row>
     <row r="5">
@@ -4066,19 +4066,19 @@
         <v>25670</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16398</v>
+        <v>16575</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37269</v>
+        <v>37928</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05885482607339124</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03759592637713644</v>
+        <v>0.03800265819542413</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08544640260287045</v>
+        <v>0.08695738728478432</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -4087,19 +4087,19 @@
         <v>18493</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11481</v>
+        <v>10282</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31397</v>
+        <v>29354</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05918551695932838</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03674285845620971</v>
+        <v>0.03290805346796576</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1004846467211336</v>
+        <v>0.09394494769622402</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -4108,19 +4108,19 @@
         <v>44163</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32131</v>
+        <v>31151</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>58767</v>
+        <v>59980</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05899284878735591</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04292076949110559</v>
+        <v>0.04161083514610336</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07850053606120733</v>
+        <v>0.08012100853629983</v>
       </c>
     </row>
     <row r="6">
@@ -4137,19 +4137,19 @@
         <v>222552</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>197681</v>
+        <v>201311</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>243689</v>
+        <v>244829</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5102484918948836</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4532279575543405</v>
+        <v>0.4615507008824928</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5587103251812972</v>
+        <v>0.5613246649838713</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>139</v>
@@ -4158,19 +4158,19 @@
         <v>150984</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>132709</v>
+        <v>132770</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>170049</v>
+        <v>167764</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4832162017392463</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4247289340138414</v>
+        <v>0.4249225329700692</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.544234444089169</v>
+        <v>0.5369195464199042</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>347</v>
@@ -4179,19 +4179,19 @@
         <v>373535</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>343796</v>
+        <v>346981</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>400946</v>
+        <v>402332</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4989658402990047</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4592402454316489</v>
+        <v>0.4634942832394277</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5355808144046758</v>
+        <v>0.5374328108968458</v>
       </c>
     </row>
     <row r="7">
@@ -4208,19 +4208,19 @@
         <v>171470</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>151917</v>
+        <v>149882</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>194331</v>
+        <v>194431</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3931327455119425</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3483036681679159</v>
+        <v>0.3436364551565739</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4455457563979781</v>
+        <v>0.4457766692339408</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>114</v>
@@ -4229,19 +4229,19 @@
         <v>128530</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110079</v>
+        <v>112748</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>146410</v>
+        <v>147633</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4113543757110818</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3523023479717238</v>
+        <v>0.3608446172336609</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4685767476650886</v>
+        <v>0.4724929926269114</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>270</v>
@@ -4250,19 +4250,19 @@
         <v>300000</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>272995</v>
+        <v>273391</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>327026</v>
+        <v>327686</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4007380317774483</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3646653290433186</v>
+        <v>0.365193282783604</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4368394094932986</v>
+        <v>0.4377201845846143</v>
       </c>
     </row>
     <row r="8">
@@ -4279,19 +4279,19 @@
         <v>12588</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6348</v>
+        <v>6874</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20472</v>
+        <v>20690</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02886156563051983</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01455422411552163</v>
+        <v>0.01576095296042751</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04693588261538154</v>
+        <v>0.0474364784533251</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -4300,19 +4300,19 @@
         <v>12494</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5948</v>
+        <v>6002</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22429</v>
+        <v>23290</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03998610247781308</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01903586974719605</v>
+        <v>0.01920795499350712</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07178283473501368</v>
+        <v>0.07453917742888125</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -4321,19 +4321,19 @@
         <v>25082</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15150</v>
+        <v>16014</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36769</v>
+        <v>37106</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03350468956455886</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02023686873333513</v>
+        <v>0.02139102449938037</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04911566910266488</v>
+        <v>0.04956609779512977</v>
       </c>
     </row>
     <row r="9">
@@ -4425,19 +4425,19 @@
         <v>13955</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7492</v>
+        <v>7568</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25488</v>
+        <v>26383</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03339889321915227</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01793170871147036</v>
+        <v>0.01811345740862713</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06099952424139559</v>
+        <v>0.06314184874876655</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -4446,19 +4446,19 @@
         <v>6058</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2110</v>
+        <v>2205</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12256</v>
+        <v>12978</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01792157016373887</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006241399781852542</v>
+        <v>0.00652432344840413</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03625921880642005</v>
+        <v>0.03839409292868384</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -4467,19 +4467,19 @@
         <v>20013</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11362</v>
+        <v>12136</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32278</v>
+        <v>31334</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0264774872164065</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01503177469490074</v>
+        <v>0.01605557961312516</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04270495745210025</v>
+        <v>0.04145614240646858</v>
       </c>
     </row>
     <row r="11">
@@ -4496,19 +4496,19 @@
         <v>29635</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20499</v>
+        <v>19477</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41977</v>
+        <v>42497</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07092603475762259</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04906006827812381</v>
+        <v>0.04661547729873585</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1004639658244825</v>
+        <v>0.1017074444782162</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -4517,19 +4517,19 @@
         <v>28653</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19100</v>
+        <v>19596</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41130</v>
+        <v>40637</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08476946396578111</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05650851116019137</v>
+        <v>0.05797442333079246</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1216829018442834</v>
+        <v>0.1202237812030541</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>54</v>
@@ -4538,19 +4538,19 @@
         <v>58288</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>44848</v>
+        <v>42650</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>76392</v>
+        <v>73911</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07711676901295117</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05933460559239994</v>
+        <v>0.05642691231890807</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1010689538468361</v>
+        <v>0.09778651305393805</v>
       </c>
     </row>
     <row r="12">
@@ -4567,19 +4567,19 @@
         <v>212968</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>191455</v>
+        <v>190909</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>234199</v>
+        <v>234969</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5096965379613149</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4582103222005349</v>
+        <v>0.4569015224163367</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5605084406970574</v>
+        <v>0.5623526284267012</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>148</v>
@@ -4588,19 +4588,19 @@
         <v>163624</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>145335</v>
+        <v>144733</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>182422</v>
+        <v>180936</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4840788834447907</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4299706052849211</v>
+        <v>0.4281891099436146</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5396938159484218</v>
+        <v>0.5352950312563207</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>338</v>
@@ -4609,19 +4609,19 @@
         <v>376592</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>348006</v>
+        <v>346694</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>406801</v>
+        <v>405667</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4982404103666323</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4604201441874818</v>
+        <v>0.4586845132387182</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5382075512253456</v>
+        <v>0.536707541525267</v>
       </c>
     </row>
     <row r="13">
@@ -4638,19 +4638,19 @@
         <v>155528</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>133795</v>
+        <v>135562</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>176199</v>
+        <v>181417</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3722262465765862</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3202107370476703</v>
+        <v>0.32444115502475</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4216977583875055</v>
+        <v>0.434186295391604</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>114</v>
@@ -4659,19 +4659,19 @@
         <v>128298</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>110911</v>
+        <v>110917</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>147711</v>
+        <v>148271</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3795677383910267</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.328128846624152</v>
+        <v>0.3281474084942066</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.437000396052396</v>
+        <v>0.438657563681236</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>253</v>
@@ -4680,19 +4680,19 @@
         <v>283826</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>253043</v>
+        <v>257655</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>309696</v>
+        <v>312550</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3755093366388437</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3347818817128062</v>
+        <v>0.3408833952649197</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4097358528887588</v>
+        <v>0.4135112773653406</v>
       </c>
     </row>
     <row r="14">
@@ -4709,19 +4709,19 @@
         <v>5746</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1961</v>
+        <v>2739</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12594</v>
+        <v>12517</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01375228748532419</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004692364413430742</v>
+        <v>0.006555631195619638</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03014018481830869</v>
+        <v>0.02995693666587122</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -4730,19 +4730,19 @@
         <v>11378</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6033</v>
+        <v>6013</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19711</v>
+        <v>19339</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03366234403466257</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0178480395088886</v>
+        <v>0.01778911905428003</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05831329321523519</v>
+        <v>0.05721270684427521</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -4751,19 +4751,19 @@
         <v>17124</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10044</v>
+        <v>10966</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27124</v>
+        <v>26120</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02265599676516629</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01328832682824955</v>
+        <v>0.01450868675654698</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03588506890239876</v>
+        <v>0.03455674419786371</v>
       </c>
     </row>
     <row r="15">
@@ -4855,19 +4855,19 @@
         <v>10443</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5346</v>
+        <v>5047</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21215</v>
+        <v>21791</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01661765267721212</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008506418037270749</v>
+        <v>0.008030757472015735</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03375882116003553</v>
+        <v>0.03467596339083778</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4941</v>
+        <v>4073</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003813528405255351</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01899608297591889</v>
+        <v>0.01565889014529081</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -4897,19 +4897,19 @@
         <v>11435</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5817</v>
+        <v>5708</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20930</v>
+        <v>20906</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01286918129145386</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006546763490670154</v>
+        <v>0.006424258880447019</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02355540239877666</v>
+        <v>0.02352784872433952</v>
       </c>
     </row>
     <row r="17">
@@ -4926,19 +4926,19 @@
         <v>58162</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45550</v>
+        <v>44141</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>75557</v>
+        <v>73975</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09255194312971229</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07248287810269079</v>
+        <v>0.0702411793159516</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1202324512546583</v>
+        <v>0.117714087188515</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -4947,19 +4947,19 @@
         <v>16924</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9933</v>
+        <v>9883</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26073</v>
+        <v>27000</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06506107252632636</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03818512236663517</v>
+        <v>0.03799434282662491</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1002306665954474</v>
+        <v>0.1037953330851719</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>69</v>
@@ -4968,19 +4968,19 @@
         <v>75086</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>59430</v>
+        <v>59166</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>93525</v>
+        <v>94925</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08450385333945078</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06688378863149169</v>
+        <v>0.06658663826112474</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1052550249759832</v>
+        <v>0.1068305389717613</v>
       </c>
     </row>
     <row r="18">
@@ -4997,19 +4997,19 @@
         <v>321970</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>292659</v>
+        <v>295741</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>345576</v>
+        <v>347267</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5123422660113389</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4657001755568162</v>
+        <v>0.4706050087773386</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5499069455673852</v>
+        <v>0.552596667476639</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>134</v>
@@ -5018,19 +5018,19 @@
         <v>140897</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>124224</v>
+        <v>125076</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>157764</v>
+        <v>158068</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5416414276584055</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4775492330622091</v>
+        <v>0.4808212800347589</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6064842980035676</v>
+        <v>0.6076510990194374</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>440</v>
@@ -5039,19 +5039,19 @@
         <v>462867</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>427020</v>
+        <v>430844</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>492247</v>
+        <v>494553</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5209197420439072</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4805769498999583</v>
+        <v>0.4848808646737393</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5539846259547297</v>
+        <v>0.5565793937397739</v>
       </c>
     </row>
     <row r="19">
@@ -5068,19 +5068,19 @@
         <v>217629</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>193367</v>
+        <v>194300</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>243619</v>
+        <v>244041</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3463074997451998</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3076993101515432</v>
+        <v>0.3091842298995749</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3876646663808933</v>
+        <v>0.3883356132772073</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -5089,19 +5089,19 @@
         <v>96000</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>80771</v>
+        <v>80009</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>111952</v>
+        <v>111470</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3690468719624898</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3105023995711649</v>
+        <v>0.3075735418800857</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4303694237462388</v>
+        <v>0.4285189010879324</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>291</v>
@@ -5110,19 +5110,19 @@
         <v>313629</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>285200</v>
+        <v>284829</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>345813</v>
+        <v>344600</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3529645646311837</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3209702961604855</v>
+        <v>0.3205527446138277</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3891848390747279</v>
+        <v>0.3878199855482782</v>
       </c>
     </row>
     <row r="20">
@@ -5139,19 +5139,19 @@
         <v>20223</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12326</v>
+        <v>11988</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31606</v>
+        <v>30593</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0321806384365369</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01961475311224033</v>
+        <v>0.01907623470504063</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0502943978357609</v>
+        <v>0.04868201636463386</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -5160,19 +5160,19 @@
         <v>5316</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2044</v>
+        <v>1969</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11517</v>
+        <v>11697</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02043709944752304</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.007856459637433748</v>
+        <v>0.007568681228767776</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04427231013380973</v>
+        <v>0.04496585752156029</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>24</v>
@@ -5181,19 +5181,19 @@
         <v>25539</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17121</v>
+        <v>16496</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>38439</v>
+        <v>37690</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0287426586940045</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01926808918591838</v>
+        <v>0.01856483005519854</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04325976980821817</v>
+        <v>0.0424166728061638</v>
       </c>
     </row>
     <row r="21">
@@ -5285,19 +5285,19 @@
         <v>9739</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5033</v>
+        <v>5186</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17763</v>
+        <v>17420</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008424694628549941</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004353545503598503</v>
+        <v>0.0044861438416147</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01536609503706924</v>
+        <v>0.01506976090506675</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -5306,19 +5306,19 @@
         <v>13468</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7186</v>
+        <v>7426</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22001</v>
+        <v>22527</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01766087209996937</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009422737012786316</v>
+        <v>0.009738323692791281</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02884974599365295</v>
+        <v>0.02954003714948712</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -5327,19 +5327,19 @@
         <v>23207</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14737</v>
+        <v>15041</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33444</v>
+        <v>34338</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01209595910157823</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00768140425302315</v>
+        <v>0.007839489193274287</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01743182093263502</v>
+        <v>0.01789781976643165</v>
       </c>
     </row>
     <row r="23">
@@ -5356,19 +5356,19 @@
         <v>129771</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>107637</v>
+        <v>109338</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>153396</v>
+        <v>155254</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1122633266138091</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09311540277752867</v>
+        <v>0.09458698898691251</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1327005672373245</v>
+        <v>0.1343082836383162</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>57</v>
@@ -5377,19 +5377,19 @@
         <v>60753</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>46994</v>
+        <v>46283</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>78821</v>
+        <v>77630</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07966507612790985</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06162334511194342</v>
+        <v>0.06069033267541232</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1033580630437873</v>
+        <v>0.1017956938323558</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>175</v>
@@ -5398,19 +5398,19 @@
         <v>190524</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>166309</v>
+        <v>161518</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>221763</v>
+        <v>217749</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09930593171076738</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0866840890271111</v>
+        <v>0.0841871429130385</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1155882167104232</v>
+        <v>0.1134961662043992</v>
       </c>
     </row>
     <row r="24">
@@ -5427,19 +5427,19 @@
         <v>598416</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>566951</v>
+        <v>566004</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>632935</v>
+        <v>636859</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5176808591730111</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4904604879337189</v>
+        <v>0.4896414185519151</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5475423599798962</v>
+        <v>0.5509370608257125</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>373</v>
@@ -5448,19 +5448,19 @@
         <v>400348</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>371761</v>
+        <v>371760</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>429859</v>
+        <v>431109</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5249757033598723</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4874894219450395</v>
+        <v>0.4874878015053886</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5636739028433885</v>
+        <v>0.565312269694575</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>932</v>
@@ -5469,19 +5469,19 @@
         <v>998765</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>954663</v>
+        <v>956121</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1043392</v>
+        <v>1044115</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5205804680623349</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4975935030504721</v>
+        <v>0.4983532550207097</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5438414447325028</v>
+        <v>0.5442180018262294</v>
       </c>
     </row>
     <row r="25">
@@ -5498,19 +5498,19 @@
         <v>385321</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>353096</v>
+        <v>352812</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>417960</v>
+        <v>419809</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3333352664678373</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3054578376537267</v>
+        <v>0.305212044306821</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3615705749489672</v>
+        <v>0.3631704424653141</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>244</v>
@@ -5519,19 +5519,19 @@
         <v>265405</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>239415</v>
+        <v>236332</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>294250</v>
+        <v>293370</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3480250960068709</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3139446963754191</v>
+        <v>0.3099012447940959</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3858496958724993</v>
+        <v>0.3846958209196066</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>608</v>
@@ -5540,19 +5540,19 @@
         <v>650726</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>607780</v>
+        <v>608051</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>693141</v>
+        <v>693714</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3391742891012133</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3167899114858701</v>
+        <v>0.3169307341618037</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.361282090655382</v>
+        <v>0.361580655550452</v>
       </c>
     </row>
     <row r="26">
@@ -5569,19 +5569,19 @@
         <v>32709</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>22491</v>
+        <v>22296</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>47815</v>
+        <v>47678</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0282958531167925</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01945685952076814</v>
+        <v>0.01928813325635661</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0413639768218259</v>
+        <v>0.04124571267504636</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>21</v>
@@ -5590,19 +5590,19 @@
         <v>22629</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14118</v>
+        <v>14598</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>34176</v>
+        <v>33316</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02967325240537758</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01851294359160932</v>
+        <v>0.01914228298264584</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04481518313515326</v>
+        <v>0.04368690937090283</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>50</v>
@@ -5611,19 +5611,19 @@
         <v>55338</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>41776</v>
+        <v>41725</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>73463</v>
+        <v>72625</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02884335202410612</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02177455736974448</v>
+        <v>0.02174830055782566</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03829045652795851</v>
+        <v>0.03785369970405992</v>
       </c>
     </row>
     <row r="27">
@@ -5715,19 +5715,19 @@
         <v>3882</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>986</v>
+        <v>1030</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9789</v>
+        <v>9679</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007619501654666177</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001935110208159207</v>
+        <v>0.002021630154484148</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01921124910032625</v>
+        <v>0.01899678971660884</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -5736,19 +5736,19 @@
         <v>7507</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3255</v>
+        <v>3231</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15510</v>
+        <v>15268</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009870198410606148</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004280395089486218</v>
+        <v>0.00424854354646454</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02039303418152888</v>
+        <v>0.02007480705687616</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>11</v>
@@ -5757,19 +5757,19 @@
         <v>11389</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5658</v>
+        <v>6074</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>19993</v>
+        <v>19657</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.008967264349908244</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004454770311266024</v>
+        <v>0.004782652580354044</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01574127375338627</v>
+        <v>0.01547700133874487</v>
       </c>
     </row>
     <row r="29">
@@ -5786,19 +5786,19 @@
         <v>51336</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>37431</v>
+        <v>38753</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>65995</v>
+        <v>67244</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1007514979561374</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07346304047592245</v>
+        <v>0.07605624745809432</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1295221653742634</v>
+        <v>0.1319737050969459</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>51</v>
@@ -5807,19 +5807,19 @@
         <v>53138</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>40799</v>
+        <v>39347</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>69597</v>
+        <v>68995</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0698684236977211</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05364441238454117</v>
+        <v>0.05173551369323553</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09150896306692345</v>
+        <v>0.09071771089361028</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>100</v>
@@ -5828,19 +5828,19 @@
         <v>104474</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>85004</v>
+        <v>84918</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>124677</v>
+        <v>124731</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08225808906396491</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06692866643814184</v>
+        <v>0.06686062747858407</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09816545165215551</v>
+        <v>0.09820739967690367</v>
       </c>
     </row>
     <row r="30">
@@ -5857,19 +5857,19 @@
         <v>269021</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>246561</v>
+        <v>248100</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>292541</v>
+        <v>292932</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5279814298166139</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4839001826335438</v>
+        <v>0.4869210944637944</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5741408488927074</v>
+        <v>0.5749076934048956</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>362</v>
@@ -5878,19 +5878,19 @@
         <v>394744</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>369251</v>
+        <v>366542</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>425879</v>
+        <v>423838</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5190280605758943</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4855082466474961</v>
+        <v>0.4819460037907521</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5599651555757656</v>
+        <v>0.5572816871800467</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>624</v>
@@ -5899,19 +5899,19 @@
         <v>663766</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>629536</v>
+        <v>629192</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>698446</v>
+        <v>705652</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5226199714026705</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4956692343760169</v>
+        <v>0.4953980365272954</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5499258278430118</v>
+        <v>0.5555997934592276</v>
       </c>
     </row>
     <row r="31">
@@ -5928,19 +5928,19 @@
         <v>167654</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>145382</v>
+        <v>147632</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>190060</v>
+        <v>190910</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3290379420838256</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2853271270192067</v>
+        <v>0.2897433376906374</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3730126997426374</v>
+        <v>0.3746805703628643</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>255</v>
@@ -5949,19 +5949,19 @@
         <v>275800</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>248997</v>
+        <v>246594</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>301331</v>
+        <v>301011</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3626351907611168</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3273932981241198</v>
+        <v>0.3242333100089398</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3962041368701901</v>
+        <v>0.3957832563300799</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>410</v>
@@ -5970,19 +5970,19 @@
         <v>443454</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>408160</v>
+        <v>406526</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>477571</v>
+        <v>476678</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3491566534608778</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3213675717708917</v>
+        <v>0.3200809434067343</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3760189197066133</v>
+        <v>0.3753151704194452</v>
       </c>
     </row>
     <row r="32">
@@ -5999,19 +5999,19 @@
         <v>17635</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10336</v>
+        <v>9825</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26776</v>
+        <v>27596</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03460962848875691</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02028612171527458</v>
+        <v>0.01928318960325134</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05255095587183584</v>
+        <v>0.05415982838953223</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>27</v>
@@ -6020,19 +6020,19 @@
         <v>29356</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>19406</v>
+        <v>19832</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>41617</v>
+        <v>42664</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03859812655466163</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02551632083602549</v>
+        <v>0.02607575143525702</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05472028817056028</v>
+        <v>0.05609653284179672</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>43</v>
@@ -6041,19 +6041,19 @@
         <v>46990</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>33927</v>
+        <v>34210</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>61363</v>
+        <v>60894</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03699802172257863</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02671281314274536</v>
+        <v>0.02693549130502075</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04831417418843135</v>
+        <v>0.04794497433884679</v>
       </c>
     </row>
     <row r="33">
@@ -6145,19 +6145,19 @@
         <v>7183</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2993</v>
+        <v>2893</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>14648</v>
+        <v>14153</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02691552110746508</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01121354289183272</v>
+        <v>0.01083866338175685</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05488554532289138</v>
+        <v>0.05303054924736247</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>15</v>
@@ -6166,19 +6166,19 @@
         <v>16067</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>9153</v>
+        <v>9149</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>25741</v>
+        <v>26637</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01450768577929597</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.008265361208336453</v>
+        <v>0.008260949472893934</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0232437518620007</v>
+        <v>0.02405206041293483</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>22</v>
@@ -6187,19 +6187,19 @@
         <v>23250</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>15056</v>
+        <v>15257</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>36148</v>
+        <v>34993</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01691716229960461</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0109552334508486</v>
+        <v>0.01110142181185688</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02630233856951826</v>
+        <v>0.02546212393486387</v>
       </c>
     </row>
     <row r="35">
@@ -6216,19 +6216,19 @@
         <v>32266</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>22503</v>
+        <v>22541</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>43513</v>
+        <v>44104</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1208996462960578</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08431999564681854</v>
+        <v>0.08445924755445668</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1630412540842262</v>
+        <v>0.1652553002820458</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>77</v>
@@ -6237,19 +6237,19 @@
         <v>81235</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>64543</v>
+        <v>65238</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>100339</v>
+        <v>100649</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07335343860359213</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05828102303378891</v>
+        <v>0.05890796132061053</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09060383108863941</v>
+        <v>0.09088336337867668</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>110</v>
@@ -6258,19 +6258,19 @@
         <v>113501</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>93567</v>
+        <v>93083</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>134703</v>
+        <v>137488</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08258643275887631</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06808156805025066</v>
+        <v>0.06772918489924347</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09801294953722757</v>
+        <v>0.1000396760607972</v>
       </c>
     </row>
     <row r="36">
@@ -6287,19 +6287,19 @@
         <v>154410</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>137602</v>
+        <v>137865</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>170770</v>
+        <v>170302</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5785697365683409</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5155900608757186</v>
+        <v>0.5165776238800436</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.639871756745895</v>
+        <v>0.6381174028328034</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>562</v>
@@ -6308,19 +6308,19 @@
         <v>598198</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>564386</v>
+        <v>561980</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>630517</v>
+        <v>631102</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5401569004752858</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5096249287208053</v>
+        <v>0.5074527639064756</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5693393723357516</v>
+        <v>0.5698682713694353</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>716</v>
@@ -6329,19 +6329,19 @@
         <v>752608</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>717213</v>
+        <v>713909</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>790250</v>
+        <v>789448</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5476162859520221</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.521861738348027</v>
+        <v>0.5194580530862063</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5750051385978973</v>
+        <v>0.5744217499520945</v>
       </c>
     </row>
     <row r="37">
@@ -6358,19 +6358,19 @@
         <v>67847</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>54644</v>
+        <v>54594</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>83208</v>
+        <v>82737</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.254220422415592</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2047490334360445</v>
+        <v>0.204562681647721</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3117778849047349</v>
+        <v>0.3100127132554577</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>370</v>
@@ -6379,19 +6379,19 @@
         <v>392161</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>358958</v>
+        <v>360508</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>423985</v>
+        <v>423758</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3541109110542164</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3241289501107268</v>
+        <v>0.3255285810408556</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3828466516510134</v>
+        <v>0.3826417338897271</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>436</v>
@@ -6400,19 +6400,19 @@
         <v>460008</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>426063</v>
+        <v>422991</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>499167</v>
+        <v>496366</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3347131852937443</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3100136065538775</v>
+        <v>0.3077785665127763</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3632064367613039</v>
+        <v>0.3611683848592574</v>
       </c>
     </row>
     <row r="38">
@@ -6429,19 +6429,19 @@
         <v>5176</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1916</v>
+        <v>1972</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>11120</v>
+        <v>11574</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01939467361254427</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.00717920905047594</v>
+        <v>0.007389132106866775</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04166651122897871</v>
+        <v>0.04336705391755882</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>18</v>
@@ -6450,19 +6450,19 @@
         <v>19791</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>11912</v>
+        <v>11918</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>30892</v>
+        <v>31467</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.0178710640876097</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01075644614843217</v>
+        <v>0.01076148456181139</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02789465400714612</v>
+        <v>0.02841377300884248</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>23</v>
@@ -6471,19 +6471,19 @@
         <v>24967</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>14919</v>
+        <v>15912</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>36343</v>
+        <v>37594</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01816693369575271</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01085562641674379</v>
+        <v>0.01157806995682556</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02644420555559785</v>
+        <v>0.02735433761594912</v>
       </c>
     </row>
     <row r="39">
@@ -6575,19 +6575,19 @@
         <v>49085</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>36161</v>
+        <v>35176</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>65837</v>
+        <v>66200</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01437430853371349</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01058942882592505</v>
+        <v>0.01030111901149918</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01927989061716889</v>
+        <v>0.01938636040756327</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>44</v>
@@ -6596,19 +6596,19 @@
         <v>46047</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>33746</v>
+        <v>33691</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>61100</v>
+        <v>60095</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01300309623298915</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.009529458850961384</v>
+        <v>0.009514113659787578</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01725408340400661</v>
+        <v>0.01697025574351091</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>88</v>
@@ -6617,19 +6617,19 @@
         <v>95132</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>75949</v>
+        <v>74861</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>119058</v>
+        <v>117837</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01367624308297112</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01091852236734082</v>
+        <v>0.01076211546232888</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01711586232535584</v>
+        <v>0.01694034539571551</v>
       </c>
     </row>
     <row r="41">
@@ -6646,19 +6646,19 @@
         <v>326841</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>292520</v>
+        <v>295827</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>367203</v>
+        <v>366415</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.09571332117624029</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.08566278716351572</v>
+        <v>0.08663121652314565</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1075331213117849</v>
+        <v>0.1073023728930795</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>242</v>
@@ -6667,19 +6667,19 @@
         <v>259197</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>232190</v>
+        <v>228411</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>292042</v>
+        <v>294668</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.07319461236229875</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06556831883687689</v>
+        <v>0.064500986658262</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.08246991688147472</v>
+        <v>0.08321151445110281</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>548</v>
@@ -6688,19 +6688,19 @@
         <v>586037</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>537747</v>
+        <v>540622</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>637919</v>
+        <v>635508</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.08424935413770322</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07730699533618256</v>
+        <v>0.07772032843211651</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09170789643565051</v>
+        <v>0.09136131600745301</v>
       </c>
     </row>
     <row r="42">
@@ -6717,19 +6717,19 @@
         <v>1779337</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1720464</v>
+        <v>1719433</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1838769</v>
+        <v>1845611</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5210678364557355</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5038273226961609</v>
+        <v>0.503525469163789</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5384723594917097</v>
+        <v>0.540475844253375</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1718</v>
@@ -6738,19 +6738,19 @@
         <v>1848796</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1783737</v>
+        <v>1784151</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1910042</v>
+        <v>1907752</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5220819552357761</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5037101565979875</v>
+        <v>0.5038270836122484</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5393774364937424</v>
+        <v>0.5387305397834825</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3397</v>
@@ -6759,19 +6759,19 @@
         <v>3628133</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3549499</v>
+        <v>3537488</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>3726003</v>
+        <v>3714378</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5215841104732027</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5102796534985394</v>
+        <v>0.508552852832606</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5356540463482155</v>
+        <v>0.5339828211896167</v>
       </c>
     </row>
     <row r="43">
@@ -6788,19 +6788,19 @@
         <v>1165449</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1108747</v>
+        <v>1100839</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1222228</v>
+        <v>1220479</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3412946303339067</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3246896942329734</v>
+        <v>0.3223739716111081</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3579220689833459</v>
+        <v>0.3574097422934948</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1186</v>
@@ -6809,19 +6809,19 @@
         <v>1286195</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1229509</v>
+        <v>1229292</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1345986</v>
+        <v>1345321</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3632089843443483</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.347201538775829</v>
+        <v>0.3471400221708542</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3800934883802076</v>
+        <v>0.3799056690497284</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2268</v>
@@ -6830,19 +6830,19 @@
         <v>2451644</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>2365828</v>
+        <v>2367081</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>2535569</v>
+        <v>2535593</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3524509285978196</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3401139203513672</v>
+        <v>0.3402939482516038</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.364515939449368</v>
+        <v>0.364519509274063</v>
       </c>
     </row>
     <row r="44">
@@ -6859,19 +6859,19 @@
         <v>94077</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>75718</v>
+        <v>75231</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>113549</v>
+        <v>118587</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02754990350040401</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02217354053597666</v>
+        <v>0.02203100166840978</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03325202238627727</v>
+        <v>0.03472743978762372</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>92</v>
@@ -6880,19 +6880,19 @@
         <v>100964</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>82385</v>
+        <v>83104</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>123511</v>
+        <v>124473</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.02851135182458764</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.02326465662381478</v>
+        <v>0.02346786559963972</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.03487822826691319</v>
+        <v>0.03515000739580376</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>179</v>
@@ -6901,19 +6901,19 @@
         <v>195041</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>168376</v>
+        <v>166911</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>226190</v>
+        <v>224412</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02803936370830341</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02420593929920301</v>
+        <v>0.02399531748856414</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03251725188827752</v>
+        <v>0.03226176949076442</v>
       </c>
     </row>
     <row r="45">
@@ -7247,19 +7247,19 @@
         <v>6896</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2727</v>
+        <v>2974</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14778</v>
+        <v>13770</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01611004163234132</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006370546552577181</v>
+        <v>0.006948124593673782</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0345251320016346</v>
+        <v>0.03216949826001832</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4438</v>
+        <v>5232</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002564758083222366</v>
@@ -7280,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01278681380029955</v>
+        <v>0.01507527400488347</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -7289,19 +7289,19 @@
         <v>7786</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3173</v>
+        <v>3151</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15931</v>
+        <v>16719</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01004500689279456</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004093681144478199</v>
+        <v>0.004065097356386787</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0205537831363965</v>
+        <v>0.02157085104966196</v>
       </c>
     </row>
     <row r="5">
@@ -7318,19 +7318,19 @@
         <v>29303</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19449</v>
+        <v>18809</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42278</v>
+        <v>43265</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06845826724379274</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04543681065040157</v>
+        <v>0.04394140818689542</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09877089782638881</v>
+        <v>0.1010772481854249</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -7339,19 +7339,19 @@
         <v>25534</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16958</v>
+        <v>16680</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37286</v>
+        <v>37141</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0735722174739042</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04886254631026558</v>
+        <v>0.04806014166115713</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1074342713390355</v>
+        <v>0.1070188754853269</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>51</v>
@@ -7360,19 +7360,19 @@
         <v>54836</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41651</v>
+        <v>41267</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73019</v>
+        <v>70408</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0707480890618053</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05373695168676575</v>
+        <v>0.0532419231827289</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09420698382485151</v>
+        <v>0.09083806831435867</v>
       </c>
     </row>
     <row r="6">
@@ -7389,19 +7389,19 @@
         <v>264443</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>242512</v>
+        <v>241191</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>285756</v>
+        <v>283368</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6178048904477862</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5665666932587076</v>
+        <v>0.5634820690053198</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6675966674708114</v>
+        <v>0.662017003361914</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>213</v>
@@ -7410,19 +7410,19 @@
         <v>222469</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>204326</v>
+        <v>203652</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>239565</v>
+        <v>240499</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6410206845731365</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5887422678730003</v>
+        <v>0.5868008857293291</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6902782949739003</v>
+        <v>0.6929711231326512</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>462</v>
@@ -7431,19 +7431,19 @@
         <v>486913</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>458183</v>
+        <v>458714</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>516931</v>
+        <v>513561</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6281999919874343</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5911330827163847</v>
+        <v>0.5918184366985466</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6669286482264853</v>
+        <v>0.662581091440233</v>
       </c>
     </row>
     <row r="7">
@@ -7460,19 +7460,19 @@
         <v>120616</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>99561</v>
+        <v>102696</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>141144</v>
+        <v>142108</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2817898073147671</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2325998691933457</v>
+        <v>0.2399239122861816</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3297477581034052</v>
+        <v>0.3319995664199935</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -7481,19 +7481,19 @@
         <v>93006</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76251</v>
+        <v>76330</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109702</v>
+        <v>111740</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2679872828281378</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2197100595012953</v>
+        <v>0.219935085182609</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3160943129533135</v>
+        <v>0.3219664811328191</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>197</v>
@@ -7502,19 +7502,19 @@
         <v>213623</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>188551</v>
+        <v>189716</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>240598</v>
+        <v>240696</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2756095904000539</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2432622541314154</v>
+        <v>0.2447659055366178</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3104115762844187</v>
+        <v>0.3105392326377771</v>
       </c>
     </row>
     <row r="8">
@@ -7531,19 +7531,19 @@
         <v>6779</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1874</v>
+        <v>2367</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16359</v>
+        <v>15677</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01583699336131263</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004377067627049096</v>
+        <v>0.005529766669083497</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0382190221174723</v>
+        <v>0.0366252288989453</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -7552,19 +7552,19 @@
         <v>5156</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1913</v>
+        <v>2000</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11280</v>
+        <v>11271</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01485505704159904</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005513462646238468</v>
+        <v>0.005762435189474923</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03250228361468999</v>
+        <v>0.03247754946776081</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -7573,19 +7573,19 @@
         <v>11934</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5690</v>
+        <v>5822</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20810</v>
+        <v>21084</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.015397321657912</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007340987541499623</v>
+        <v>0.007510836048319953</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02684885683085151</v>
+        <v>0.02720142212463582</v>
       </c>
     </row>
     <row r="9">
@@ -7677,19 +7677,19 @@
         <v>2834</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8443</v>
+        <v>8288</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007563531834999928</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002426769338018467</v>
+        <v>0.002434582289673396</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02253731101982985</v>
+        <v>0.02212387592687312</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -7698,19 +7698,19 @@
         <v>8323</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4081</v>
+        <v>3986</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16749</v>
+        <v>16336</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02242378790085905</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0109956021096847</v>
+        <v>0.01074052541288707</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04512723152437813</v>
+        <v>0.04401448334069118</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -7719,19 +7719,19 @@
         <v>11156</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5826</v>
+        <v>5931</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19108</v>
+        <v>19879</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0149591152693537</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007811952940749697</v>
+        <v>0.007952117166603776</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02562081639735533</v>
+        <v>0.02665513139560919</v>
       </c>
     </row>
     <row r="11">
@@ -7748,19 +7748,19 @@
         <v>31670</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21626</v>
+        <v>21537</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>44262</v>
+        <v>44698</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08453759751663174</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05772541062931011</v>
+        <v>0.057488310128756</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1181482255447358</v>
+        <v>0.119313631398374</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -7769,19 +7769,19 @@
         <v>37381</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27035</v>
+        <v>26555</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>50128</v>
+        <v>49788</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1007129255583201</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07283909829740726</v>
+        <v>0.07154586876582356</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1350561059866552</v>
+        <v>0.1341420909722401</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>63</v>
@@ -7790,19 +7790,19 @@
         <v>69051</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>54806</v>
+        <v>53719</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>86733</v>
+        <v>85975</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09258765988299866</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07348662809687213</v>
+        <v>0.07202990592520131</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1162974545195976</v>
+        <v>0.1152810071842523</v>
       </c>
     </row>
     <row r="12">
@@ -7819,19 +7819,19 @@
         <v>230520</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>211432</v>
+        <v>210118</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>251713</v>
+        <v>248242</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6153286978405644</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5643766651572046</v>
+        <v>0.5608687360900599</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6718986016543504</v>
+        <v>0.6626349184751132</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>215</v>
@@ -7840,19 +7840,19 @@
         <v>225171</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>207306</v>
+        <v>204487</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>244485</v>
+        <v>242356</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6066667906562018</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5585346946763522</v>
+        <v>0.5509391429719507</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6587043625069993</v>
+        <v>0.6529675518546646</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>435</v>
@@ -7861,19 +7861,19 @@
         <v>455691</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>427293</v>
+        <v>426885</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>481359</v>
+        <v>480559</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6110178799785656</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5729407449236824</v>
+        <v>0.5723935022395554</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6454350549455198</v>
+        <v>0.6443619684254555</v>
       </c>
     </row>
     <row r="13">
@@ -7890,19 +7890,19 @@
         <v>109605</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>92785</v>
+        <v>92186</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>128404</v>
+        <v>127534</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2925701728078038</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2476712774672076</v>
+        <v>0.2460729773413312</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3427491634767272</v>
+        <v>0.3404285651468139</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -7911,19 +7911,19 @@
         <v>96339</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79000</v>
+        <v>79313</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>112879</v>
+        <v>115163</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2595598878770876</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2128465552582602</v>
+        <v>0.2136897516641954</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3041233660288931</v>
+        <v>0.3102787006502046</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>190</v>
@@ -7932,19 +7932,19 @@
         <v>205944</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>181117</v>
+        <v>181334</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>231682</v>
+        <v>229842</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.276141767044475</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2428524190346032</v>
+        <v>0.2431441818944326</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3106535680793753</v>
+        <v>0.3081854746192774</v>
       </c>
     </row>
     <row r="14">
@@ -7974,19 +7974,19 @@
         <v>3948</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1015</v>
+        <v>1039</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9486</v>
+        <v>9963</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01063660800753161</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002734952294259864</v>
+        <v>0.002798998164556054</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02555667374959854</v>
+        <v>0.02684376690213711</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -7995,19 +7995,19 @@
         <v>3948</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>938</v>
+        <v>1025</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8771</v>
+        <v>8998</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005293577824607127</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001257960227517778</v>
+        <v>0.001374706546298369</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01176067018379827</v>
+        <v>0.01206567574099676</v>
       </c>
     </row>
     <row r="15">
@@ -8099,19 +8099,19 @@
         <v>10673</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5065</v>
+        <v>5162</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19633</v>
+        <v>21619</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0204496805335199</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009704919848852961</v>
+        <v>0.009889573417339179</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0376182480226115</v>
+        <v>0.04142251302808671</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -8120,19 +8120,19 @@
         <v>3359</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>899</v>
+        <v>882</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9659</v>
+        <v>9435</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02021822151080047</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005411678461416023</v>
+        <v>0.005310267632313846</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05814474280301352</v>
+        <v>0.05679434679255407</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -8141,19 +8141,19 @@
         <v>14032</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7678</v>
+        <v>7095</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25692</v>
+        <v>23795</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02039379596608395</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01115888733356222</v>
+        <v>0.01031195935467012</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03734068106082278</v>
+        <v>0.03458421394837775</v>
       </c>
     </row>
     <row r="17">
@@ -8170,19 +8170,19 @@
         <v>50644</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>38611</v>
+        <v>38559</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>66035</v>
+        <v>66178</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09703483255043052</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07397905653799421</v>
+        <v>0.07388060292804825</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1265255921578695</v>
+        <v>0.1267995929142483</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -8191,19 +8191,19 @@
         <v>10681</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5483</v>
+        <v>5455</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18678</v>
+        <v>19065</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06429300320295017</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03300285017403562</v>
+        <v>0.03283582884761635</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1124345661852863</v>
+        <v>0.1147649486218097</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>57</v>
@@ -8212,19 +8212,19 @@
         <v>61324</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>47911</v>
+        <v>47657</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>78805</v>
+        <v>80151</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08912948952837964</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06963469838810048</v>
+        <v>0.06926582714700275</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1145359578022788</v>
+        <v>0.1164930571929757</v>
       </c>
     </row>
     <row r="18">
@@ -8241,19 +8241,19 @@
         <v>314276</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>286627</v>
+        <v>289446</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>334995</v>
+        <v>335720</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6021601094652806</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5491834486033995</v>
+        <v>0.5545858710825947</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6418592712105301</v>
+        <v>0.6432469775552724</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>92</v>
@@ -8262,19 +8262,19 @@
         <v>100168</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>86661</v>
+        <v>86023</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>113972</v>
+        <v>112396</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6029735590264853</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.521668606803235</v>
+        <v>0.5178286487048316</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6860676043719757</v>
+        <v>0.676582812769226</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>398</v>
@@ -8283,19 +8283,19 @@
         <v>414443</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>387833</v>
+        <v>387244</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>440576</v>
+        <v>438918</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6023565125967066</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5636817907091034</v>
+        <v>0.5628254805173579</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.640338444622818</v>
+        <v>0.6379283836616272</v>
       </c>
     </row>
     <row r="19">
@@ -8312,19 +8312,19 @@
         <v>141966</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>123088</v>
+        <v>121819</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>164197</v>
+        <v>163727</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2720105745252514</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2358393142021948</v>
+        <v>0.2334077278296377</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.314604751651696</v>
+        <v>0.3137048328850888</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -8333,19 +8333,19 @@
         <v>48216</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36116</v>
+        <v>37001</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60395</v>
+        <v>62358</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2902436787320722</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.217403046171848</v>
+        <v>0.2227344321008135</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3635577448833407</v>
+        <v>0.3753738952030277</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>181</v>
@@ -8354,19 +8354,19 @@
         <v>190182</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>168406</v>
+        <v>164634</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>217362</v>
+        <v>215037</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2764128619350968</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2447634796432735</v>
+        <v>0.2392816273539736</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.315916835026477</v>
+        <v>0.3125370658967588</v>
       </c>
     </row>
     <row r="20">
@@ -8383,19 +8383,19 @@
         <v>4355</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11446</v>
+        <v>11111</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008344802925517475</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001733120572849057</v>
+        <v>0.001743777775307991</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02193032706928996</v>
+        <v>0.02128891937678961</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -8404,19 +8404,19 @@
         <v>3700</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10994</v>
+        <v>10745</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02227153752769177</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005638357881787208</v>
+        <v>0.005621607957848529</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06617890153086817</v>
+        <v>0.0646835694737968</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -8425,19 +8425,19 @@
         <v>8055</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3577</v>
+        <v>3492</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16543</v>
+        <v>15744</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.011707339973733</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005198588368726865</v>
+        <v>0.005075140948865938</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02404337614627866</v>
+        <v>0.02288275907666975</v>
       </c>
     </row>
     <row r="21">
@@ -8529,19 +8529,19 @@
         <v>13415</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7179</v>
+        <v>7429</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22156</v>
+        <v>22437</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01168905193105091</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006255522727053805</v>
+        <v>0.00647336235262164</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01930541807441078</v>
+        <v>0.01955016061443737</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -8550,19 +8550,19 @@
         <v>14906</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8336</v>
+        <v>8150</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25075</v>
+        <v>24315</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01811136082381652</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01012785709808529</v>
+        <v>0.009902823737296921</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03046613110583643</v>
+        <v>0.02954271482518988</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -8571,19 +8571,19 @@
         <v>28321</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18270</v>
+        <v>17923</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39469</v>
+        <v>40459</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01437125384447486</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009270759626013718</v>
+        <v>0.009094990853418247</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02002818372732105</v>
+        <v>0.02053028474704206</v>
       </c>
     </row>
     <row r="23">
@@ -8600,19 +8600,19 @@
         <v>109480</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>90469</v>
+        <v>89970</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>131643</v>
+        <v>130404</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09539524261254741</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07882974414306596</v>
+        <v>0.07839566954172468</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1147072179219133</v>
+        <v>0.1136271545548228</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>71</v>
@@ -8621,19 +8621,19 @@
         <v>71696</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>55525</v>
+        <v>57162</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>88201</v>
+        <v>88966</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08711291984530659</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06746388545813975</v>
+        <v>0.06945261052989266</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.107165962937974</v>
+        <v>0.1080961481446378</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>173</v>
@@ -8642,19 +8642,19 @@
         <v>181176</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>159873</v>
+        <v>157053</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>207605</v>
+        <v>207885</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09193622774035527</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08112592667487437</v>
+        <v>0.07969480213744189</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1053472670295224</v>
+        <v>0.1054893388046011</v>
       </c>
     </row>
     <row r="24">
@@ -8671,19 +8671,19 @@
         <v>675055</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>643293</v>
+        <v>643673</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>707375</v>
+        <v>711602</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5882082404419747</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5605325109292675</v>
+        <v>0.5608639042880661</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6163707097747655</v>
+        <v>0.6200538192988292</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>465</v>
@@ -8692,19 +8692,19 @@
         <v>477882</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>451199</v>
+        <v>451229</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>508407</v>
+        <v>503822</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5806383703343679</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5482175348292937</v>
+        <v>0.5482544038240194</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6177268886737148</v>
+        <v>0.6121555348949026</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1117</v>
@@ -8713,19 +8713,19 @@
         <v>1152937</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1108865</v>
+        <v>1108376</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1198140</v>
+        <v>1199051</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.585046773059136</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5626827021482967</v>
+        <v>0.5624348379049475</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6079847704439496</v>
+        <v>0.6084466253573185</v>
       </c>
     </row>
     <row r="25">
@@ -8742,19 +8742,19 @@
         <v>332107</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>301369</v>
+        <v>296811</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>360741</v>
+        <v>358938</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2893814581576984</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2625972909008195</v>
+        <v>0.2586257001496376</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3143309476888835</v>
+        <v>0.3127605822686654</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>233</v>
@@ -8763,19 +8763,19 @@
         <v>245974</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>221672</v>
+        <v>221308</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>273455</v>
+        <v>272835</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.298864682169706</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2693373422600726</v>
+        <v>0.2688950770729328</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3322538420016569</v>
+        <v>0.3315013160302573</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>551</v>
@@ -8784,19 +8784,19 @@
         <v>578082</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>534743</v>
+        <v>536646</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>623784</v>
+        <v>620684</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2933420153366106</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2713502092040472</v>
+        <v>0.2723160087348525</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3165332145312229</v>
+        <v>0.3149601882474449</v>
       </c>
     </row>
     <row r="26">
@@ -8813,19 +8813,19 @@
         <v>17589</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10040</v>
+        <v>9519</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>27579</v>
+        <v>27118</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01532600685672857</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008748098315261155</v>
+        <v>0.008294156276015548</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02403100631266555</v>
+        <v>0.0236294048038857</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -8834,19 +8834,19 @@
         <v>12570</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7264</v>
+        <v>6849</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>22189</v>
+        <v>21875</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01527266682680301</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00882619014129676</v>
+        <v>0.008321123293817404</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02696032028919279</v>
+        <v>0.02657881043094905</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>28</v>
@@ -8855,19 +8855,19 @@
         <v>30159</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20310</v>
+        <v>20887</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>43178</v>
+        <v>43793</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01530373001942328</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01030603363906852</v>
+        <v>0.01059877985031293</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02191048438826595</v>
+        <v>0.02222255573553771</v>
       </c>
     </row>
     <row r="27">
@@ -8959,19 +8959,19 @@
         <v>15769</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9673</v>
+        <v>9131</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24665</v>
+        <v>24454</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02548540898091111</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01563242707570841</v>
+        <v>0.01475640487032131</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03986306636349781</v>
+        <v>0.03952107323983967</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -8980,19 +8980,19 @@
         <v>10497</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5244</v>
+        <v>5132</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>18678</v>
+        <v>18251</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01423999695821918</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007113697517478409</v>
+        <v>0.006961833107559221</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0253376744496855</v>
+        <v>0.02475864201707101</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>26</v>
@@ -9001,19 +9001,19 @@
         <v>26266</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>17651</v>
+        <v>16788</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>37387</v>
+        <v>37518</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01937169475758136</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01301785797287564</v>
+        <v>0.01238157835942231</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02757312784630353</v>
+        <v>0.0276696723398416</v>
       </c>
     </row>
     <row r="29">
@@ -9030,19 +9030,19 @@
         <v>71676</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>56732</v>
+        <v>57358</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>89087</v>
+        <v>89510</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1158395636468755</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09168788366333794</v>
+        <v>0.09269870338405189</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.143978813617335</v>
+        <v>0.1446616203198517</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>61</v>
@@ -9051,19 +9051,19 @@
         <v>65888</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>50031</v>
+        <v>51634</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>83140</v>
+        <v>83356</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08938065372228077</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06786942460310946</v>
+        <v>0.07004481118324013</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.112784922103555</v>
+        <v>0.1130777484822146</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>131</v>
@@ -9072,19 +9072,19 @@
         <v>137564</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>116108</v>
+        <v>116448</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>159698</v>
+        <v>161661</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1014548338020839</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08563093955759378</v>
+        <v>0.0858819429135171</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1177792012764947</v>
+        <v>0.1192265296438561</v>
       </c>
     </row>
     <row r="30">
@@ -9101,19 +9101,19 @@
         <v>383841</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>360470</v>
+        <v>357152</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>409257</v>
+        <v>407535</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6203453320148858</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5825752807823796</v>
+        <v>0.5772124485145846</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6614216572844521</v>
+        <v>0.658639387807046</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>427</v>
@@ -9122,19 +9122,19 @@
         <v>449187</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>420192</v>
+        <v>421784</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>475944</v>
+        <v>475201</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6093487135332732</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5700153710800963</v>
+        <v>0.5721757051733491</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6456460518386206</v>
+        <v>0.644638678482099</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>797</v>
@@ -9143,19 +9143,19 @@
         <v>833027</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>796486</v>
+        <v>790021</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>871025</v>
+        <v>866621</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6143668776297638</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5874172734187263</v>
+        <v>0.58264930461397</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6423908026654501</v>
+        <v>0.6391427771876215</v>
       </c>
     </row>
     <row r="31">
@@ -9172,19 +9172,19 @@
         <v>139479</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>118227</v>
+        <v>119518</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>160244</v>
+        <v>161625</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2254202174047989</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1910733289632162</v>
+        <v>0.1931589421441771</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2589786364500244</v>
+        <v>0.2612116113454586</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>187</v>
@@ -9193,19 +9193,19 @@
         <v>198004</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>174207</v>
+        <v>173911</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>223992</v>
+        <v>224487</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2686042486043911</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2363224889403683</v>
+        <v>0.2359210761122456</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.303858049427977</v>
+        <v>0.3045293728721591</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>319</v>
@@ -9214,19 +9214,19 @@
         <v>337483</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>308478</v>
+        <v>305467</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>374681</v>
+        <v>374733</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2488977765402855</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2275061016027471</v>
+        <v>0.2252850723743097</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.276331376739745</v>
+        <v>0.2763700514549988</v>
       </c>
     </row>
     <row r="32">
@@ -9243,19 +9243,19 @@
         <v>7988</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3232</v>
+        <v>3185</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>15974</v>
+        <v>16288</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01290947795252872</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.005223450283897598</v>
+        <v>0.005148107160277198</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02581648472157385</v>
+        <v>0.02632386522300865</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -9264,19 +9264,19 @@
         <v>13583</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7450</v>
+        <v>7397</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>22584</v>
+        <v>22129</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01842638718183574</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01010638567419654</v>
+        <v>0.01003424948713029</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03063650981854124</v>
+        <v>0.03001988880777551</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>20</v>
@@ -9285,19 +9285,19 @@
         <v>21571</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13165</v>
+        <v>13969</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>32356</v>
+        <v>34162</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01590881727028539</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.009709417795651059</v>
+        <v>0.01030236069643235</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02386267408214606</v>
+        <v>0.02519471306380733</v>
       </c>
     </row>
     <row r="33">
@@ -9389,19 +9389,19 @@
         <v>4171</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10356</v>
+        <v>10450</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01457936598511732</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003807663696402302</v>
+        <v>0.003791173372432429</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03620225156695053</v>
+        <v>0.0365321789329096</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>16</v>
@@ -9410,19 +9410,19 @@
         <v>16461</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>9930</v>
+        <v>9288</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>25930</v>
+        <v>25465</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01524214308961188</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.009195089237042429</v>
+        <v>0.008599780910915927</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02400942170139033</v>
+        <v>0.02357973274308293</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>20</v>
@@ -9431,19 +9431,19 @@
         <v>20632</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>12585</v>
+        <v>12726</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>30977</v>
+        <v>30883</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01510335155855183</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.009213116747913214</v>
+        <v>0.009315880639744421</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02267636005367921</v>
+        <v>0.02260804674253633</v>
       </c>
     </row>
     <row r="35">
@@ -9460,19 +9460,19 @@
         <v>34037</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>24272</v>
+        <v>24038</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>46189</v>
+        <v>46429</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1189863295973199</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0848484881303025</v>
+        <v>0.08403058656994852</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1614656292917405</v>
+        <v>0.162304135004417</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>88</v>
@@ -9481,19 +9481,19 @@
         <v>93097</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>75908</v>
+        <v>76755</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>111745</v>
+        <v>114098</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.08620317482866841</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07028734930376901</v>
+        <v>0.07107110293309452</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1034702497555574</v>
+        <v>0.1056488802226688</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>120</v>
@@ -9502,19 +9502,19 @@
         <v>127134</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>107750</v>
+        <v>107014</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>153256</v>
+        <v>153856</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0930682644831905</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07887811620027337</v>
+        <v>0.07833952173602082</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1121903802011787</v>
+        <v>0.1126297193874784</v>
       </c>
     </row>
     <row r="36">
@@ -9531,19 +9531,19 @@
         <v>180695</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>163419</v>
+        <v>164423</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>198735</v>
+        <v>196550</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.6316692189981677</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5712766505098729</v>
+        <v>0.5747843932804454</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6947328931336063</v>
+        <v>0.6870942719478893</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>591</v>
@@ -9552,19 +9552,19 @@
         <v>638494</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>606668</v>
+        <v>604674</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>675576</v>
+        <v>673030</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5912128795839684</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5617440974536841</v>
+        <v>0.5598973800202958</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6255491982508292</v>
+        <v>0.6231915231982631</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>762</v>
@@ -9573,19 +9573,19 @@
         <v>819189</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>782331</v>
+        <v>781244</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>856705</v>
+        <v>856745</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5996848036294796</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5727036341536568</v>
+        <v>0.5719076521026273</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6271488241655091</v>
+        <v>0.6271780632024002</v>
       </c>
     </row>
     <row r="37">
@@ -9602,19 +9602,19 @@
         <v>63736</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>48928</v>
+        <v>52011</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>78762</v>
+        <v>78519</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2228067044622363</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1710398207041767</v>
+        <v>0.1818191313127099</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2753335774085685</v>
+        <v>0.2744851596613532</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>273</v>
@@ -9623,19 +9623,19 @@
         <v>307996</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>277319</v>
+        <v>276721</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>341367</v>
+        <v>339551</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2851889104845794</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2567837055981219</v>
+        <v>0.2562292745351206</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.316088127323953</v>
+        <v>0.3144073462985261</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>334</v>
@@ -9644,19 +9644,19 @@
         <v>371732</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>340493</v>
+        <v>336944</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>405817</v>
+        <v>407307</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2721255113025162</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.249256911124178</v>
+        <v>0.246659217363904</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.297077576728272</v>
+        <v>0.2981677065289529</v>
       </c>
     </row>
     <row r="38">
@@ -9673,19 +9673,19 @@
         <v>3421</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>9509</v>
+        <v>9518</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01195838095715871</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.003537287420369065</v>
+        <v>0.003556250625878404</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03323989620035642</v>
+        <v>0.03327426480216377</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>22</v>
@@ -9694,19 +9694,19 @@
         <v>23925</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>15640</v>
+        <v>14999</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>36587</v>
+        <v>36104</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02215289201317192</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01448179174781631</v>
+        <v>0.01388848167332681</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.03387764222155279</v>
+        <v>0.03343060786434632</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>25</v>
@@ -9715,19 +9715,19 @@
         <v>27345</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>18560</v>
+        <v>18597</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>39128</v>
+        <v>40851</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02001806902626186</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01358705959451584</v>
+        <v>0.01361405109256892</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02864343572877347</v>
+        <v>0.02990507411468502</v>
       </c>
     </row>
     <row r="39">
@@ -9819,19 +9819,19 @@
         <v>53757</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>40132</v>
+        <v>40817</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>71115</v>
+        <v>69785</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01591833169652258</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01188370210989626</v>
+        <v>0.01208668352108693</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02105844046047241</v>
+        <v>0.02066451350700128</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>52</v>
@@ -9840,19 +9840,19 @@
         <v>54436</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>41262</v>
+        <v>40863</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>71803</v>
+        <v>70878</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01544505039672424</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01170709313663017</v>
+        <v>0.01159392319876743</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02037243634701262</v>
+        <v>0.02011003470608583</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>103</v>
@@ -9861,19 +9861,19 @@
         <v>108193</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>88216</v>
+        <v>89877</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>129918</v>
+        <v>131543</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01567663481181178</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01278204692785833</v>
+        <v>0.013022755934396</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01882455538019307</v>
+        <v>0.01905995137069792</v>
       </c>
     </row>
     <row r="41">
@@ -9890,19 +9890,19 @@
         <v>326810</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>292626</v>
+        <v>291756</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>358561</v>
+        <v>362433</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0967741308497068</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.08665161400686751</v>
+        <v>0.08639416583916332</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1061763273153263</v>
+        <v>0.1073227606993393</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>290</v>
@@ -9911,19 +9911,19 @@
         <v>304276</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>271973</v>
+        <v>271589</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>336506</v>
+        <v>341130</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.08633173034016831</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07716650472478122</v>
+        <v>0.07705748842900696</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09547635966879869</v>
+        <v>0.09678816005351759</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>595</v>
@@ -9932,19 +9932,19 @@
         <v>631086</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>583438</v>
+        <v>580804</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>680584</v>
+        <v>677941</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.09144137066430898</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08453736090734523</v>
+        <v>0.08415568861744278</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09861346443884771</v>
+        <v>0.09823040621056515</v>
       </c>
     </row>
     <row r="42">
@@ -9961,19 +9961,19 @@
         <v>2048828</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1990259</v>
+        <v>1993778</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2108549</v>
+        <v>2111559</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.6066941395718303</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5893507966995656</v>
+        <v>0.5903929448144424</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6243785334563808</v>
+        <v>0.6252699138667821</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2003</v>
@@ -9982,19 +9982,19 @@
         <v>2113371</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2053748</v>
+        <v>2048684</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2169794</v>
+        <v>2173926</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5996230139976299</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5827062114152047</v>
+        <v>0.5812695149488358</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6156317626452007</v>
+        <v>0.6168040179760791</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3971</v>
@@ -10003,19 +10003,19 @@
         <v>4162199</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4078385</v>
+        <v>4082491</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4244752</v>
+        <v>4238568</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6030830334000645</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5909387163320056</v>
+        <v>0.5915336812310903</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.61504447474903</v>
+        <v>0.6141484596933341</v>
       </c>
     </row>
     <row r="43">
@@ -10032,19 +10032,19 @@
         <v>907510</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>856308</v>
+        <v>854640</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>960041</v>
+        <v>965725</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2687297579379508</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2535680481191007</v>
+        <v>0.2530740875083693</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2842849719373824</v>
+        <v>0.2859683028060618</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>915</v>
@@ -10053,19 +10053,19 @@
         <v>989536</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>937433</v>
+        <v>938702</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1051671</v>
+        <v>1045726</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2807591563080379</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2659761557265304</v>
+        <v>0.2663362053681216</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2983886459482136</v>
+        <v>0.2967018233505439</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1772</v>
@@ -10074,19 +10074,19 @@
         <v>1897046</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1816906</v>
+        <v>1828485</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1971041</v>
+        <v>1973784</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2748729715241078</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2632610643940714</v>
+        <v>0.2649388226153637</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2855946015399052</v>
+        <v>0.2859919448031859</v>
       </c>
     </row>
     <row r="44">
@@ -10103,19 +10103,19 @@
         <v>40131</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>27742</v>
+        <v>28559</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>57084</v>
+        <v>56062</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01188363994398947</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.008214893588894821</v>
+        <v>0.008456878091387435</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01690364135112207</v>
+        <v>0.01660082863730173</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>59</v>
@@ -10124,19 +10124,19 @@
         <v>62881</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>49365</v>
+        <v>47741</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>82043</v>
+        <v>81231</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01784104895743972</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01400636645807364</v>
+        <v>0.01354554115747661</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02327795768735224</v>
+        <v>0.0230474923082665</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>94</v>
@@ -10145,19 +10145,19 @@
         <v>103012</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>84194</v>
+        <v>83779</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>126216</v>
+        <v>125643</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01492598959970687</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01219931599708791</v>
+        <v>0.01213920990944995</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01828804256142196</v>
+        <v>0.01820511490025447</v>
       </c>
     </row>
     <row r="45">
